--- a/resultados/planilhas/resultados.xlsx
+++ b/resultados/planilhas/resultados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\Documents\GitHub\drunk\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\Documents\GitHub\drunk\resultados\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8655581-9DDD-4AF1-BC8A-4B85D0FE4AC6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
     <definedName name="resultados" localSheetId="0">Entidades!$A$1:$D$7</definedName>
     <definedName name="resultados" localSheetId="10">'Gráfico entidades'!$A$1:$D$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,8 +43,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="compare_entities" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="compare_entities" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\planilhas\compare_entities.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
@@ -53,7 +54,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="compare22" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="compare22" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\compare22.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
@@ -63,7 +64,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="marcos" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="marcos" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\marcos.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -73,7 +74,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="resultados" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="resultados" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\resultados.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -83,7 +84,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="resultados1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="resultados1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\resultados.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="233">
   <si>
     <t>Técnica</t>
   </si>
@@ -793,12 +794,15 @@
   </si>
   <si>
     <t>2 Gram + Info Gain</t>
+  </si>
+  <si>
+    <t>Classification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -10836,23 +10840,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="resultados" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="resultados" connectionId="4" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="compare_entities" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="compare_entities" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="compare22" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="compare22" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="marcos" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="marcos" connectionId="3" xr16:uid="{00000000-0016-0000-0700-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="resultados" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="resultados" connectionId="5" xr16:uid="{00000000-0016-0000-0A00-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11151,11 +11155,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11451,10 +11455,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -11543,7 +11547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11812,7 +11816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11943,7 +11947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12214,7 +12218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12287,7 +12291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12587,10 +12591,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13037,14 +13043,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13052,6 +13062,9 @@
       </c>
       <c r="B1" t="s">
         <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13305,7 +13318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13393,7 +13406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13569,7 +13582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
